--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/145.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/145.xlsx
@@ -479,13 +479,13 @@
         <v>-0.009426275337800752</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.214658955701999</v>
+        <v>-2.105985527529157</v>
       </c>
       <c r="F2" t="n">
-        <v>0.45626024982203</v>
+        <v>0.3925770101933254</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1095618478266561</v>
+        <v>-0.09927720688807741</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.01345245702018936</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.303858619306109</v>
+        <v>-2.180324089599507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.470964736453221</v>
+        <v>0.4075223217500755</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08877692532988052</v>
+        <v>-0.08067859695078848</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.03295144195356579</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.478349657036139</v>
+        <v>-2.340045318904812</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4745881284704552</v>
+        <v>0.4075821344766849</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03438826861245655</v>
+        <v>-0.03491556501809228</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.03475668817107806</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.677393819039339</v>
+        <v>-2.522506402455548</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5549370825554913</v>
+        <v>0.4732486381982283</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09549326492047056</v>
+        <v>-0.09440719172677307</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.01385227137623353</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.739842240667383</v>
+        <v>-2.57013936910435</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6235076515558345</v>
+        <v>0.5397509460731823</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.145487260251223</v>
+        <v>-0.1418874785208083</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.02726428796160722</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.813947847907781</v>
+        <v>-2.614699850428372</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7018119548023012</v>
+        <v>0.6211859733519161</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.158391069007646</v>
+        <v>-0.1586051356081429</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.0754907716280122</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.647289916334903</v>
+        <v>-2.444953693339503</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8673090472732193</v>
+        <v>0.7775584769766541</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2054621108301431</v>
+        <v>-0.2026540607177427</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.115224500206239</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.18042561383283</v>
+        <v>-2.008869334754465</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9275152786629707</v>
+        <v>0.8345300990721325</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.219354403594743</v>
+        <v>-0.2152383435925417</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1259290649656282</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.524682951822479</v>
+        <v>-1.403304828312058</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8244831350208702</v>
+        <v>0.7548375109606787</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2573764094888824</v>
+        <v>-0.2457695924884111</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.08698288943349952</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7290123509571779</v>
+        <v>-0.6559904558817964</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6839200794504762</v>
+        <v>0.6411240735614319</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2502161965060856</v>
+        <v>-0.2442317758069003</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.01243178449764693</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1544200470449248</v>
+        <v>0.1792155702627746</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4755876306124811</v>
+        <v>0.4637698950497555</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1344880146315738</v>
+        <v>-0.131583949352774</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1721610042793144</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9897394025662295</v>
+        <v>0.9775155700702083</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1081328667448355</v>
+        <v>0.1323585950407744</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07165002327100774</v>
+        <v>-0.06641168763531904</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3783147351404718</v>
       </c>
       <c r="E14" t="n">
-        <v>1.787727746587646</v>
+        <v>1.747642201625481</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3109591684162004</v>
+        <v>-0.2500414803836212</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09610893467721957</v>
+        <v>0.08615168971587142</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6120717547433817</v>
       </c>
       <c r="E15" t="n">
-        <v>2.560503452324067</v>
+        <v>2.49351319852151</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.859818061994629</v>
+        <v>-0.7439151639976528</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2778546265373248</v>
+        <v>0.2491791461854689</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8523270292137924</v>
       </c>
       <c r="E16" t="n">
-        <v>3.14273155127407</v>
+        <v>3.069816689498937</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.395792822055651</v>
+        <v>-1.22989356769924</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4882647806154368</v>
+        <v>0.4445794539228575</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.086119234986958</v>
       </c>
       <c r="E17" t="n">
-        <v>3.890891171972471</v>
+        <v>3.811121456924073</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.034647832913568</v>
+        <v>-1.821776699939302</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7125451911904506</v>
+        <v>0.6562362311450397</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.311433724631254</v>
       </c>
       <c r="E18" t="n">
-        <v>4.404425928430669</v>
+        <v>4.309528315607451</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.539782836330945</v>
+        <v>-2.290314184767317</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9830088968035477</v>
+        <v>0.8996740284454041</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.523475942700729</v>
       </c>
       <c r="E19" t="n">
-        <v>4.883743083210912</v>
+        <v>4.803342186494873</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.046933371233147</v>
+        <v>-2.776535774423145</v>
       </c>
       <c r="G19" t="n">
-        <v>1.29405553742114</v>
+        <v>1.187908409937986</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.717787988386601</v>
       </c>
       <c r="E20" t="n">
-        <v>5.186880277743969</v>
+        <v>5.130195127128568</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.524886638444783</v>
+        <v>-3.229252006053406</v>
       </c>
       <c r="G20" t="n">
-        <v>1.509323114507586</v>
+        <v>1.399157516207751</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.886780448034874</v>
       </c>
       <c r="E21" t="n">
-        <v>5.389335339183027</v>
+        <v>5.358671872680969</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.925561862877041</v>
+        <v>-3.629921721418739</v>
       </c>
       <c r="G21" t="n">
-        <v>1.740030245154871</v>
+        <v>1.616350118679548</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.029419762618978</v>
       </c>
       <c r="E22" t="n">
-        <v>5.556093220970108</v>
+        <v>5.542364626194123</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.243077722083179</v>
+        <v>-3.95534309166161</v>
       </c>
       <c r="G22" t="n">
-        <v>1.945965462871125</v>
+        <v>1.814207470265287</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.145051308673961</v>
       </c>
       <c r="E23" t="n">
-        <v>5.825382708318714</v>
+        <v>5.82217013529214</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.419792848831608</v>
+        <v>-4.149559737019781</v>
       </c>
       <c r="G23" t="n">
-        <v>2.029142929317139</v>
+        <v>1.896952081452943</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.231802298683702</v>
       </c>
       <c r="E24" t="n">
-        <v>5.870281603753816</v>
+        <v>5.878886766289967</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.678866165073412</v>
+        <v>-4.408086868626494</v>
       </c>
       <c r="G24" t="n">
-        <v>2.203903124316911</v>
+        <v>2.059102809271976</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.287297141731501</v>
       </c>
       <c r="E25" t="n">
-        <v>5.838179483774889</v>
+        <v>5.869526074575592</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.672654298611199</v>
+        <v>-4.447746641416347</v>
       </c>
       <c r="G25" t="n">
-        <v>2.256259722348736</v>
+        <v>2.115665186395916</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.310902695426301</v>
       </c>
       <c r="E26" t="n">
-        <v>5.856280703669847</v>
+        <v>5.895908209067713</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.684527911852731</v>
+        <v>-4.490206594222994</v>
       </c>
       <c r="G26" t="n">
-        <v>2.292159950467362</v>
+        <v>2.159734573754093</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.307510804786412</v>
       </c>
       <c r="E27" t="n">
-        <v>5.837412936462815</v>
+        <v>5.863909974350792</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.662448358628685</v>
+        <v>-4.495738484424805</v>
       </c>
       <c r="G27" t="n">
-        <v>2.347016090863812</v>
+        <v>2.214214523580552</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.284039389012858</v>
       </c>
       <c r="E28" t="n">
-        <v>5.619308976919786</v>
+        <v>5.657960590462445</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.573981400925541</v>
+        <v>-4.435043520097889</v>
       </c>
       <c r="G28" t="n">
-        <v>2.318559399169817</v>
+        <v>2.190500351499036</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.246629837597551</v>
       </c>
       <c r="E29" t="n">
-        <v>5.397414779332664</v>
+        <v>5.460762752888531</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.335320751658324</v>
+        <v>-4.244688730653831</v>
       </c>
       <c r="G29" t="n">
-        <v>2.293027235003199</v>
+        <v>2.168988232168219</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.198250193482879</v>
       </c>
       <c r="E30" t="n">
-        <v>5.135919834672738</v>
+        <v>5.221796743911782</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.202205167560364</v>
+        <v>-4.123257090493285</v>
       </c>
       <c r="G30" t="n">
-        <v>2.145938296155892</v>
+        <v>2.053910120190805</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.138744899972565</v>
       </c>
       <c r="E31" t="n">
-        <v>4.875065515795182</v>
+        <v>4.989909098923523</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.044741081675004</v>
+        <v>-3.976219307267421</v>
       </c>
       <c r="G31" t="n">
-        <v>2.023514236939367</v>
+        <v>1.939681978538893</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.068243017669638</v>
       </c>
       <c r="E32" t="n">
-        <v>4.608840643675747</v>
+        <v>4.745048388337502</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.886108286592078</v>
+        <v>-3.842358425115526</v>
       </c>
       <c r="G32" t="n">
-        <v>1.88819896111939</v>
+        <v>1.81487642839184</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.988806510057685</v>
       </c>
       <c r="E33" t="n">
-        <v>4.341317205781239</v>
+        <v>4.475241048697987</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.750770974504403</v>
+        <v>-3.702740568027473</v>
       </c>
       <c r="G33" t="n">
-        <v>1.773696940140371</v>
+        <v>1.704956377074928</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.902225487574938</v>
       </c>
       <c r="E34" t="n">
-        <v>3.986563202203369</v>
+        <v>4.123570548578745</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.62718765020504</v>
+        <v>-3.583903698388392</v>
       </c>
       <c r="G34" t="n">
-        <v>1.612588212979639</v>
+        <v>1.558504915971748</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.812227043428565</v>
       </c>
       <c r="E35" t="n">
-        <v>3.674702793700064</v>
+        <v>3.822281252494095</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.443719194416671</v>
+        <v>-3.413738852213257</v>
       </c>
       <c r="G35" t="n">
-        <v>1.464087378980526</v>
+        <v>1.416106554105917</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.719006813893646</v>
       </c>
       <c r="E36" t="n">
-        <v>3.390423922259311</v>
+        <v>3.529348423924431</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.355059419371167</v>
+        <v>-3.322155336649937</v>
       </c>
       <c r="G36" t="n">
-        <v>1.346438893778027</v>
+        <v>1.310738566087807</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.624077249665191</v>
       </c>
       <c r="E37" t="n">
-        <v>3.100735147098647</v>
+        <v>3.243673397523084</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.252229537186154</v>
+        <v>-3.21911610992179</v>
       </c>
       <c r="G37" t="n">
-        <v>1.237598619578328</v>
+        <v>1.196368762714977</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.5283373649347</v>
       </c>
       <c r="E38" t="n">
-        <v>2.805460178076487</v>
+        <v>2.94498123298858</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.114269909242391</v>
+        <v>-3.080439516268275</v>
       </c>
       <c r="G38" t="n">
-        <v>1.155401767044884</v>
+        <v>1.121689425504866</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.432627825598842</v>
       </c>
       <c r="E39" t="n">
-        <v>2.444265288254254</v>
+        <v>2.588563491199495</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.958800105583719</v>
+        <v>-2.934717613027818</v>
       </c>
       <c r="G39" t="n">
-        <v>1.033070574956516</v>
+        <v>0.995903261445243</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.340375953584445</v>
       </c>
       <c r="E40" t="n">
-        <v>2.138063478492025</v>
+        <v>2.295285952442265</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.821971410378611</v>
+        <v>-2.800915756592971</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9670719532003782</v>
+        <v>0.9397485552737196</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.252323943621909</v>
       </c>
       <c r="E41" t="n">
-        <v>1.932364363643966</v>
+        <v>2.092473588662672</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.730997040215234</v>
+        <v>-2.708251676902879</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8121554172628432</v>
+        <v>0.8002322224189905</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.170642385752657</v>
       </c>
       <c r="E42" t="n">
-        <v>1.669610203687</v>
+        <v>1.831516958542231</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.597262866602603</v>
+        <v>-2.587354416234015</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7329303128304158</v>
+        <v>0.7158002627333003</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.094499753557237</v>
       </c>
       <c r="E43" t="n">
-        <v>1.392743388288451</v>
+        <v>1.563500852662756</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.472524212268206</v>
+        <v>-2.463206806079666</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6655056297503795</v>
+        <v>0.6521610956399922</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.022815472341463</v>
       </c>
       <c r="E44" t="n">
-        <v>1.12663184554575</v>
+        <v>1.299959683145139</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.404706024407844</v>
+        <v>-2.392113871437439</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6230905364886898</v>
+        <v>0.5974403208879738</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9547935362562954</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9271170518252816</v>
+        <v>1.095178221444799</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.365469662761621</v>
+        <v>-2.347791854010293</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5249992388683523</v>
+        <v>0.5101971630516406</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8890716525717706</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7280083550381085</v>
+        <v>0.8863310683541382</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.299469466986362</v>
+        <v>-2.279006431399893</v>
       </c>
       <c r="G46" t="n">
-        <v>0.43584522181876</v>
+        <v>0.423726848603866</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8251636211267279</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5540288735225009</v>
+        <v>0.7083079317159091</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.236712537610543</v>
+        <v>-2.219771369807984</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4041145703524595</v>
+        <v>0.3945193497890105</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7613595836288101</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4025610134797357</v>
+        <v>0.5559759351755498</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.190616600633692</v>
+        <v>-2.176057710771221</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3445772970892609</v>
+        <v>0.3348498589196227</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6981621114490461</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3086959572000905</v>
+        <v>0.4508377539491491</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.171144410084081</v>
+        <v>-2.146740030617874</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3074713703237185</v>
+        <v>0.2929101194325658</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6346092617219558</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2117080469837847</v>
+        <v>0.3517201958617235</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.103313630070749</v>
+        <v>-2.079234285553091</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2817424537669375</v>
+        <v>0.2657929180107976</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5718034371861622</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1391237292241248</v>
+        <v>0.2650531290237863</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.054450567478651</v>
+        <v>-2.018189888981247</v>
       </c>
       <c r="G51" t="n">
-        <v>0.229711677693222</v>
+        <v>0.2187958550870017</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5127035466858458</v>
       </c>
       <c r="E52" t="n">
-        <v>0.05390161193954163</v>
+        <v>0.1626458709728422</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.029197004696503</v>
+        <v>-1.985417236856646</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1861821788936514</v>
+        <v>0.1700752412253815</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4587984737949903</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03084695386985046</v>
+        <v>0.1258689142036517</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.011564842499693</v>
+        <v>-1.969924953655244</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1319572201648427</v>
+        <v>0.1135443444838673</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4127144135604044</v>
       </c>
       <c r="E54" t="n">
-        <v>0.04499581175122234</v>
+        <v>0.1125558604756905</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.998904219697511</v>
+        <v>-1.945985696839382</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09325681202942272</v>
+        <v>0.07664618824233657</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3743443739524177</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01215705082352609</v>
+        <v>0.06255084701108891</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.985115812194917</v>
+        <v>-1.928310249116735</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07144877710380169</v>
+        <v>0.05414873294158584</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3444602703712472</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.03535314233381387</v>
+        <v>0.0001409888515166371</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.048384297785158</v>
+        <v>-1.976243066408145</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01208621996306756</v>
+        <v>-0.003682303594122734</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3217905076535101</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.01974831676523885</v>
+        <v>-0.002555305903271441</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.088158973970866</v>
+        <v>-2.005526905150383</v>
       </c>
       <c r="G57" t="n">
-        <v>0.009241967410877214</v>
+        <v>-0.007757439099170214</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3056485477457767</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1200589813466104</v>
+        <v>-0.09988950032626337</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.061575365031219</v>
+        <v>-1.982318780216365</v>
       </c>
       <c r="G58" t="n">
-        <v>0.001341965441069062</v>
+        <v>-0.02081864976772332</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2958977260165474</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1717119928312137</v>
+        <v>-0.1626739750367052</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.111252195509029</v>
+        <v>-2.023447899855952</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.05343075194195227</v>
+        <v>-0.07573775092902561</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2911944166700692</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2349057125131938</v>
+        <v>-0.2363711243151247</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.147501068863023</v>
+        <v>-2.044536608043139</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.05572094976344477</v>
+        <v>-0.08177254024009245</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.291408228130023</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.2780842050487142</v>
+        <v>-0.2841961212967248</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.215788314421532</v>
+        <v>-2.102146494892305</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.07390087061446772</v>
+        <v>-0.1055685613159163</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2944122529490091</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3877681534974314</v>
+        <v>-0.3842454987039604</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.261811846518804</v>
+        <v>-2.137088932375619</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.08450346341554915</v>
+        <v>-0.116109767371267</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2983214887958288</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4557248550404673</v>
+        <v>-0.4631085787384888</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.315347384872483</v>
+        <v>-2.186169996616017</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1178868349592154</v>
+        <v>-0.1523751679260348</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3009127066121753</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5443059291299061</v>
+        <v>-0.547362674263472</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.369992606706679</v>
+        <v>-2.248101352962714</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1910283554878158</v>
+        <v>-0.2222631909309067</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.3008593122645832</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.6396521374026952</v>
+        <v>-0.645864790874469</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.36149919952814</v>
+        <v>-2.254087347681021</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1935137316803496</v>
+        <v>-0.2262549034225252</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2972743111372883</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.7478328975905703</v>
+        <v>-0.7455411257499563</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.353010514406966</v>
+        <v>-2.246761075680927</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2502649910988459</v>
+        <v>-0.2821483224199126</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2895675424330857</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.7727338800895471</v>
+        <v>-0.7797398391984565</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.338998596189147</v>
+        <v>-2.2401454733141</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.291771875327545</v>
+        <v>-0.3224951545562131</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2785272310065117</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.833919938382308</v>
+        <v>-0.8343339054112101</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.369365360086841</v>
+        <v>-2.268357405034733</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3112220296094576</v>
+        <v>-0.3417879069259957</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.2647863203021713</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.8302052532560384</v>
+        <v>-0.8311685529582745</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.425645987788068</v>
+        <v>-2.325746929206916</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3358176523989022</v>
+        <v>-0.3675640440564157</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.2496972496111657</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.8446885902006868</v>
+        <v>-0.8466088935286735</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.416666208701047</v>
+        <v>-2.321596240784046</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4087356622122778</v>
+        <v>-0.4322940064007852</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2342663037821691</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7435137891217212</v>
+        <v>-0.7556919750632245</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.361032502858674</v>
+        <v>-2.284827154110463</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4371813357724239</v>
+        <v>-0.4547662773955952</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2190983242665613</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.7057074238471999</v>
+        <v>-0.728798284356681</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.357512996103446</v>
+        <v>-2.284731138944063</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4481805813920731</v>
+        <v>-0.468674310351408</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2053017578025122</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5395035967908177</v>
+        <v>-0.5674991008822717</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.376779777157727</v>
+        <v>-2.29898230806832</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4560144745587866</v>
+        <v>-0.4765743123212162</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1937678429891283</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3413676438206084</v>
+        <v>-0.3914293219735768</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.426536882610724</v>
+        <v>-2.334325333418005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4875546697114098</v>
+        <v>-0.5051537775066728</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1848704869135078</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.1896416446419499</v>
+        <v>-0.2476348051471524</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.383316678568489</v>
+        <v>-2.289017193011365</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4811059133714409</v>
+        <v>-0.5005843999975369</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1791397601945601</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.007524484269217712</v>
+        <v>-0.08720920228506503</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.359189326467632</v>
+        <v>-2.267364198969192</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5070441744713549</v>
+        <v>-0.5182637827679862</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.176289109047769</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2600335820459584</v>
+        <v>0.1634989893365872</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.324085552024384</v>
+        <v>-2.234646637513836</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4633541257214117</v>
+        <v>-0.4795917069767496</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.176445705918801</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4753405096104369</v>
+        <v>0.3693193036569865</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.359064191947488</v>
+        <v>-2.27164553097913</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4559924382910884</v>
+        <v>-0.4662597650193328</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1795753825761867</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7770138663606841</v>
+        <v>0.6515440801444424</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.280930669775683</v>
+        <v>-2.202144716678098</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4700673172737591</v>
+        <v>-0.4721403004565121</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1853378461436846</v>
       </c>
       <c r="E80" t="n">
-        <v>1.014061146028568</v>
+        <v>0.8705767109690395</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.16197023963558</v>
+        <v>-2.095116138487015</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4163995613138909</v>
+        <v>-0.422226580100946</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1927610193669027</v>
       </c>
       <c r="E81" t="n">
-        <v>1.248791469549897</v>
+        <v>1.101331062189963</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.138871509030492</v>
+        <v>-2.073495411836829</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3663473272756503</v>
+        <v>-0.3697393384820533</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2004324355244589</v>
       </c>
       <c r="E82" t="n">
-        <v>1.51932285798521</v>
+        <v>1.360137582190707</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.995239116173562</v>
+        <v>-1.938853029191207</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2976272264587836</v>
+        <v>-0.3081605624185278</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2073379741086099</v>
       </c>
       <c r="E83" t="n">
-        <v>1.80132254973832</v>
+        <v>1.629260223512456</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.958631366459911</v>
+        <v>-1.907249873273732</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3025444621937269</v>
+        <v>-0.3013796880439644</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2121344096179123</v>
       </c>
       <c r="E84" t="n">
-        <v>2.085930391175425</v>
+        <v>1.888650704607203</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.828619748069156</v>
+        <v>-1.795750293768595</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2433235667739098</v>
+        <v>-0.2521538140444067</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2127372164470016</v>
       </c>
       <c r="E85" t="n">
-        <v>2.319911481595015</v>
+        <v>2.116109059788123</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.690582206178889</v>
+        <v>-1.668372009367776</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1978076558432579</v>
+        <v>-0.1988795628648636</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2070632671495739</v>
       </c>
       <c r="E86" t="n">
-        <v>2.507207164876826</v>
+        <v>2.2962712884122</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.498699831177608</v>
+        <v>-1.497776668962965</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.18025104656427</v>
+        <v>-0.178722673997487</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1946133512356082</v>
       </c>
       <c r="E87" t="n">
-        <v>2.750912545427812</v>
+        <v>2.528651601385427</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.349599295893279</v>
+        <v>-1.367214930889315</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.168985791713121</v>
+        <v>-0.1593669608628525</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1754944936079296</v>
       </c>
       <c r="E88" t="n">
-        <v>2.85171587799415</v>
+        <v>2.63618858775269</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.112877051173944</v>
+        <v>-1.158987941332447</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1577315549958211</v>
+        <v>-0.1422589470334353</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1513075063432975</v>
       </c>
       <c r="E89" t="n">
-        <v>2.956202415304332</v>
+        <v>2.728105008360165</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8952232610996059</v>
+        <v>-0.952114608219898</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1725651111949587</v>
+        <v>-0.1469117475560001</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1230744946135517</v>
       </c>
       <c r="E90" t="n">
-        <v>3.037757068036285</v>
+        <v>2.814971975626507</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6953676922393757</v>
+        <v>-0.7535040884846166</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.132342626569241</v>
+        <v>-0.1038339922442429</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09176232479974236</v>
       </c>
       <c r="E91" t="n">
-        <v>3.079196269442768</v>
+        <v>2.851925222537283</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5486785542488793</v>
+        <v>-0.5958471852568971</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2124255714227773</v>
+        <v>-0.1765269173232726</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.05795488455149694</v>
       </c>
       <c r="E92" t="n">
-        <v>3.088423169531833</v>
+        <v>2.873320864453123</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.334618249828471</v>
+        <v>-0.3919723585704255</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1651074085982361</v>
+        <v>-0.1295644828201452</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02184554053727116</v>
       </c>
       <c r="E93" t="n">
-        <v>3.036998390819818</v>
+        <v>2.827542092329214</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2192001497208555</v>
+        <v>-0.272743558170141</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.166845125708152</v>
+        <v>-0.1290513525866012</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01582259809937099</v>
       </c>
       <c r="E94" t="n">
-        <v>2.977023540240898</v>
+        <v>2.77055158200428</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08066285675957548</v>
+        <v>-0.1245087334025274</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.193893070288583</v>
+        <v>-0.1607332094601415</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05686553088957297</v>
       </c>
       <c r="E95" t="n">
-        <v>2.834069549625248</v>
+        <v>2.638877012411871</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08694342133388566</v>
+        <v>0.0435429921022618</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1692250426195587</v>
+        <v>-0.1435701049614788</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1021045262957239</v>
       </c>
       <c r="E96" t="n">
-        <v>2.667450181520842</v>
+        <v>2.48795848504244</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1305028264967609</v>
+        <v>0.1025388027877329</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1987441972204318</v>
+        <v>-0.1726989028202693</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1520879643007143</v>
       </c>
       <c r="E97" t="n">
-        <v>2.446032911727475</v>
+        <v>2.275522568355214</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1405057180126268</v>
+        <v>0.1189825805479612</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2358406798712464</v>
+        <v>-0.2068063231597339</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.205846187349502</v>
       </c>
       <c r="E98" t="n">
-        <v>2.274963791567152</v>
+        <v>2.110851835922979</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1766546411524184</v>
+        <v>0.1610639817559351</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2411545684247575</v>
+        <v>-0.2081426653937182</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2587578982096119</v>
       </c>
       <c r="E99" t="n">
-        <v>2.123828049558981</v>
+        <v>1.960581804431523</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1990545072676485</v>
+        <v>0.1833678327047658</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2908463520842202</v>
+        <v>-0.2605874084963358</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3057609104924005</v>
       </c>
       <c r="E100" t="n">
-        <v>1.900756485669127</v>
+        <v>1.749913511217518</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2141068521246469</v>
+        <v>0.2041999757751804</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3142819227812662</v>
+        <v>-0.2774624674958004</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3396637693319493</v>
       </c>
       <c r="E101" t="n">
-        <v>1.761406998841256</v>
+        <v>1.612805427618379</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2284414442623323</v>
+        <v>0.2179569028953484</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3635644614691907</v>
+        <v>-0.3220371149919146</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3587048514700244</v>
       </c>
       <c r="E102" t="n">
-        <v>1.494033092763272</v>
+        <v>1.371429595366918</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2323025131668829</v>
+        <v>0.2222177726567094</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3682156879726342</v>
+        <v>-0.3259265162406487</v>
       </c>
     </row>
   </sheetData>
